--- a/Datasets/Scoring for ARIMA/Japan scores.xlsx
+++ b/Datasets/Scoring for ARIMA/Japan scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Scoring for ARIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF51DF5F-CA71-4E17-98F1-1BC0A25E8B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816C9CB7-989F-49A7-A2B5-5D22E51C8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2709" windowWidth="23983" windowHeight="13594" xr2:uid="{A81DBB92-2E20-464F-9FA7-4188991DBF37}"/>
+    <workbookView xWindow="5717" yWindow="5494" windowWidth="23983" windowHeight="13595" xr2:uid="{A81DBB92-2E20-464F-9FA7-4188991DBF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Japan</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Lowest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +91,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,11 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -136,6 +156,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF01566-65D3-465A-897D-BEC9DA97D818}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -462,84 +488,129 @@
     <col min="2" max="6" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.51</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.434</v>
       </c>
+      <c r="G2" s="3">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.44699999999999995</v>
+      </c>
+      <c r="H2" s="3">
+        <f>MAX(B2:F2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="I2" s="3">
+        <f>MIN(B2:F2)</f>
+        <v>0.38500000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.317</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.32800000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.35599999999999998</v>
       </c>
+      <c r="G3" s="3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>0.36159999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <f>MAX(B3:F3)</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <f>MIN(B3:F3)</f>
+        <v>0.317</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-0.29599999999999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.754</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.41899999999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(B4:F4)</f>
+        <v>0.42279999999999995</v>
+      </c>
+      <c r="H4" s="3">
+        <f>MAX(B4:F4)</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I4" s="3">
+        <f>MIN(B4:F4)</f>
+        <v>-0.29599999999999999</v>
       </c>
     </row>
   </sheetData>
